--- a/BDD/registros/Categorias.xlsx
+++ b/BDD/registros/Categorias.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9732"/>
+    <workbookView windowWidth="23040" windowHeight="9287"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -716,11 +716,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1262,7 +1259,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1278,182 +1275,232 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2"/>
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2"/>
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2"/>
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2"/>
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2"/>
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2"/>
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2"/>
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="2"/>
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
